--- a/src/test/resources/test_files/Remove_Duplicate/nonDuplicatesTestOutput.xlsx
+++ b/src/test/resources/test_files/Remove_Duplicate/nonDuplicatesTestOutput.xlsx
@@ -1,67 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://airarabia-my.sharepoint.com/personal/malhaq_isa_ae1/Documents/Desktop/ExcelColumnConvert/src/test/resources/test_files/originals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://airarabia-my.sharepoint.com/personal/malhaq_isa_ae1/Documents/Documents/ExcelColumnConvert/ExcelColumnConvert/src/test/resources/test_files/originals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_74AC4085E3F66FFC05FC9890E22D62B1D0368FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B212923B-FE4E-4786-80E3-2668B6ECD460}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_74AC4085E3F66FFC05FC9890E22D62B1D0368FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB237DB-99F4-47B5-8B5E-7D7B3DEF86B1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>text1</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>text2</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>text3</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>text4</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
     <t>9.9</t>
   </si>
   <si>
-    <t>text1</t>
-  </si>
-  <si>
-    <t>text2</t>
-  </si>
-  <si>
-    <t>text3</t>
-  </si>
-  <si>
-    <t>text4</t>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>8.10</t>
   </si>
 </sst>
 </file>
@@ -69,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,10 +164,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,13 +455,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -430,35 +469,35 @@
         <v>100</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="0">
         <v>1.1000000000000001</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0">
         <v>200</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0">
         <v>2.2000000000000002</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0">
         <v>300</v>
@@ -470,41 +509,41 @@
         <v>3.3</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0">
         <v>200</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0">
         <v>4.4000000000000004</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0">
         <v>500</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0">
         <v>5.5</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
